--- a/Question_Set2/Programming skills/.NET.xlsx
+++ b/Question_Set2/Programming skills/.NET.xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You have been given roll numbers of four groups of students of the same class. A student can be part of multiple groups at the same time. You want to get the list of unique roll numbers from the provided four groups. Which collection should you use to remove duplicate roll numbers across the groups?', 'ques_type': 2, 'options': ['List', 'Array', 'Set', 'Dictionary'], 'score': 'Set'}, {'title': 'Given a file named "Employee.csv" in a folder named "EmployeesFolder", which of the following functionalities are achieved by the below code block?A.     It reads the "Employee.csv" file present in the "EmployeesFolder".B.     It moves the "Employees.csv" file to another folder by renaming it to "Employees_Processed.csv" .C.     It renames the "Employees.csv" to "Employees_Processed.csv".D.    An exception is thrown. string path = @"C:\\EmployeesFolder"\nstring filename = "Employees.csv"\n \nif (File.Exists(path + @"\\" + filename))\n{\n   using (var reader = new StreamReader(path + @"\\" + filename))\n       {\n           while (!reader.EndOfStream)\n           {\n           var line = reader.ReadLine()\n           }\n       }\n   var newFileName = filename.Split(\'.\')[0] + "_Processed." + filename.Split(\'.\')[1]\n   File.Move(path + @"\\" + filename, path + @"\\" + newFileName)\n}', 'ques_type': 2, 'options': ['A and B', 'B and D', 'A and D', 'A and C'], 'score': 'A and C'}, {'title': 'Which of the following scenarios are valid with respect to Object Oriented Programming in .NET?', 'ques_type': 2, 'options': ['A and B', 'B and C', 'A and C', 'A, B, and C'], 'score': 'A and C'}, {'title': 'True or false: You can deploy a .NET Core based web application on both Windows and Linux.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'True'}]</t>
+    <t>questions = [
+    {
+        "title": "You have been given roll numbers of four groups of students of the same class. A student can be part of multiple groups at the same time. You want to get the list of unique roll numbers from the provided four groups. Which collection should you use to remove duplicate roll numbers across the groups?",
+        "ques_type": 2,
+        "options": [
+            "List",
+            "Array",
+            "Set",
+            "Dictionary"
+        ],
+        "score": "Set"
+    },
+    {
+        "title": "Given a file named \"Employee.csv\" in a folder named \"EmployeesFolder\", which of the following functionalities are achieved by the below code block?A.     It reads the \"Employee.csv\" file present in the \"EmployeesFolder\".B.     It moves the \"Employees.csv\" file to another folder by renaming it to \"Employees_Processed.csv\" .C.     It renames the \"Employees.csv\" to \"Employees_Processed.csv\".D.    An exception is thrown. string path = @\"C:\\EmployeesFolder\"\nstring filename = \"Employees.csv\"\n \nif (File.Exists(path + @\"\\\" + filename))\n{\n   using (var reader = new StreamReader(path + @\"\\\" + filename))\n       {\n           while (!reader.EndOfStream)\n           {\n           var line = reader.ReadLine()\n           }\n       }\n   var newFileName = filename.Split('.')[0] + \"_Processed.\" + filename.Split('.')[1]\n   File.Move(path + @\"\\\" + filename, path + @\"\\\" + newFileName)\n}",
+        "ques_type": 2,
+        "options": [
+            "A and B",
+            "B and D",
+            "A and D",
+            "A and C"
+        ],
+        "score": "A and C"
+    },
+    {
+        "title": "Which of the following scenarios are valid with respect to Object Oriented Programming in .NET?",
+        "ques_type": 2,
+        "options": [
+            "A and B",
+            "B and C",
+            "A and C",
+            "A, B, and C"
+        ],
+        "score": "A and C"
+    },
+    {
+        "title": "True or false: You can deploy a .NET Core based web application on both Windows and Linux.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "True"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
